--- a/Lab_1/save.xlsx
+++ b/Lab_1/save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgira\Desktop\Poland\HPC\Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8441C49E-8AAF-46CA-95F3-827216D79B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B77BA-082C-41AD-85AF-FA008AA4436D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,6 +449,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
